--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/18022026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/18022026.xlsx
@@ -1,117 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Evangelio y Oraciones" state="visible" r:id="rId4"/>
+    <sheet name="Evangelio y Oraciones" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>APELLIDO_PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO_MATERNO</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>TEXTO_MENSAJE</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>56994148421</t>
-  </si>
-  <si>
-    <t>lucesalejandro3@gmail.com</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miércoles, 18 de febrero de 2026
-*Evangelio del Día*
-Lectura del santo evangelio según san Mateo
-Mateo 6, 1-6. 16-18 En aquel tiempo, Jesús dijo a sus discípulos: "Tengan cuidado de no practicar sus obras de piedad delante de los hombres para que los vean. De lo contrario, no tendrán recompensa con su Padre celestial. Por lo tanto, cuando des limosna, no lo anuncies con trompeta, como hacen los hipócritas en las sinagogas y por las calles, para que los alaben los hombres. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando des limosna, que no sepa tu mano izquierda lo que hace la derecha, para que tu limosna quede en secreto; y tu Padre, que ve lo secreto, te recompensará. Cuando ustedes hagan oración, no sean como los hipócritas, a quienes les gusta orar de pie en las sinagogas y en las esquinas de las plazas, para que los vea la gente. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando vayas a orar, entra en tu cuarto, cierra la puerta y ora ante tu Padre, que está allí, en lo secreto; y tu Padre, que ve lo secreto, te recompensará. Cuando ustedes ayunen, no pongan cara triste, como esos hipócritas que descuidan la apariencia de su rostro, para que la gente note que están ayunando. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando ayunes, perfúmate la cabeza y lávate la cara, para que no sepa la gente que estás ayunando, sino tu Padre, que está en lo secreto; y tu Padre, que ve lo secreto, te recompensará''.
-*Oración de la mañana*
-Querido Jesús, que en tu sabiduría nos enseñas a vivir nuestra fe con humildad y sinceridad, ayúdanos a actuar con rectitud, no buscando la aprobación humana, sino la gloria de tu amor. Que nuestras obras de piedad sean un reflejo de nuestro amor por Ti, no un espectáculo para los demás.
-Bendito Padre, agradecemos por este nuevo día que nos regalas para crecer en santidad. Ayúdanos a mantener nuestras acciones de amor y caridad en secreto, para que no busquemos el reconocimiento de los demás, sino que agrademos a tus ojos, que todo lo ven. Que en cada acto de bondad, veas el amor que te tenemos.
-Amado Espíritu Santo, ilumina nuestras acciones y decisiones para que seamos auténticos en nuestra vida de oración. Que en nuestro ayuno, oración y limosna, busquemos fortalecer nuestra relación contigo, no buscando la atención de los demás, sino tu santa presencia. Guíanos para que seamos verdaderos discípulos de Cristo en cada gesto y palabra.
-En la confianza de que nos escuchas, y sabiendo que nos amas en todo momento, terminamos esta oración diciendo: Amén.</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>56973223070</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>56971748545</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>56931123918</t>
-  </si>
-  <si>
-    <t>Yume</t>
-  </si>
-  <si>
-    <t>584146711206</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
-      <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,28 +51,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,193 +456,496 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="100" style="1" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="8"/>
+    <col width="100" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRES</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_PATERNO</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_MATERNO</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CELULAR</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>MAIL</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>SMS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>WHATSAPP</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>TEXTO_MENSAJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="150" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56994148421</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>miércoles, 18 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 6, 1-6. 16-18 En aquel tiempo, Jesús dijo a sus discípulos: "Tengan cuidado de no practicar sus obras de piedad delante de los hombres para que los vean. De lo contrario, no tendrán recompensa con su Padre celestial. Por lo tanto, cuando des limosna, no lo anuncies con trompeta, como hacen los hipócritas en las sinagogas y por las calles, para que los alaben los hombres. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando des limosna, que no sepa tu mano izquierda lo que hace la derecha, para que tu limosna quede en secreto; y tu Padre, que ve lo secreto, te recompensará. Cuando ustedes hagan oración, no sean como los hipócritas, a quienes les gusta orar de pie en las sinagogas y en las esquinas de las plazas, para que los vea la gente. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando vayas a orar, entra en tu cuarto, cierra la puerta y ora ante tu Padre, que está allí, en lo secreto; y tu Padre, que ve lo secreto, te recompensará. Cuando ustedes ayunen, no pongan cara triste, como esos hipócritas que descuidan la apariencia de su rostro, para que la gente note que están ayunando. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando ayunes, perfúmate la cabeza y lávate la cara, para que no sepa la gente que estás ayunando, sino tu Padre, que está en lo secreto; y tu Padre, que ve lo secreto, te recompensará''.
+*Oración de la mañana*
+Querido Jesús, que en tu sabiduría nos enseñas a vivir nuestra fe con humildad y sinceridad, ayúdanos a actuar con rectitud, no buscando la aprobación humana, sino la gloria de tu amor. Que nuestras obras de piedad sean un reflejo de nuestro amor por Ti, no un espectáculo para los demás.
+Bendito Padre, agradecemos por este nuevo día que nos regalas para crecer en santidad. Ayúdanos a mantener nuestras acciones de amor y caridad en secreto, para que no busquemos el reconocimiento de los demás, sino que agrademos a tus ojos, que todo lo ven. Que en cada acto de bondad, veas el amor que te tenemos.
+Amado Espíritu Santo, ilumina nuestras acciones y decisiones para que seamos auténticos en nuestra vida de oración. Que en nuestro ayuno, oración y limosna, busquemos fortalecer nuestra relación contigo, no buscando la atención de los demás, sino tu santa presencia. Guíanos para que seamos verdaderos discípulos de Cristo en cada gesto y palabra.
+En la confianza de que nos escuchas, y sabiendo que nos amas en todo momento, terminamos esta oración diciendo: Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
+    <row r="3" ht="150" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56973223070</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>miércoles, 18 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 6, 1-6. 16-18 En aquel tiempo, Jesús dijo a sus discípulos: "Tengan cuidado de no practicar sus obras de piedad delante de los hombres para que los vean. De lo contrario, no tendrán recompensa con su Padre celestial. Por lo tanto, cuando des limosna, no lo anuncies con trompeta, como hacen los hipócritas en las sinagogas y por las calles, para que los alaben los hombres. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando des limosna, que no sepa tu mano izquierda lo que hace la derecha, para que tu limosna quede en secreto; y tu Padre, que ve lo secreto, te recompensará. Cuando ustedes hagan oración, no sean como los hipócritas, a quienes les gusta orar de pie en las sinagogas y en las esquinas de las plazas, para que los vea la gente. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando vayas a orar, entra en tu cuarto, cierra la puerta y ora ante tu Padre, que está allí, en lo secreto; y tu Padre, que ve lo secreto, te recompensará. Cuando ustedes ayunen, no pongan cara triste, como esos hipócritas que descuidan la apariencia de su rostro, para que la gente note que están ayunando. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando ayunes, perfúmate la cabeza y lávate la cara, para que no sepa la gente que estás ayunando, sino tu Padre, que está en lo secreto; y tu Padre, que ve lo secreto, te recompensará''.
+*Oración de la mañana*
+Querido Jesús, que en tu sabiduría nos enseñas a vivir nuestra fe con humildad y sinceridad, ayúdanos a actuar con rectitud, no buscando la aprobación humana, sino la gloria de tu amor. Que nuestras obras de piedad sean un reflejo de nuestro amor por Ti, no un espectáculo para los demás.
+Bendito Padre, agradecemos por este nuevo día que nos regalas para crecer en santidad. Ayúdanos a mantener nuestras acciones de amor y caridad en secreto, para que no busquemos el reconocimiento de los demás, sino que agrademos a tus ojos, que todo lo ven. Que en cada acto de bondad, veas el amor que te tenemos.
+Amado Espíritu Santo, ilumina nuestras acciones y decisiones para que seamos auténticos en nuestra vida de oración. Que en nuestro ayuno, oración y limosna, busquemos fortalecer nuestra relación contigo, no buscando la atención de los demás, sino tu santa presencia. Guíanos para que seamos verdaderos discípulos de Cristo en cada gesto y palabra.
+En la confianza de que nos escuchas, y sabiendo que nos amas en todo momento, terminamos esta oración diciendo: Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+    <row r="4" ht="150" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mama</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56971748545</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>miércoles, 18 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 6, 1-6. 16-18 En aquel tiempo, Jesús dijo a sus discípulos: "Tengan cuidado de no practicar sus obras de piedad delante de los hombres para que los vean. De lo contrario, no tendrán recompensa con su Padre celestial. Por lo tanto, cuando des limosna, no lo anuncies con trompeta, como hacen los hipócritas en las sinagogas y por las calles, para que los alaben los hombres. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando des limosna, que no sepa tu mano izquierda lo que hace la derecha, para que tu limosna quede en secreto; y tu Padre, que ve lo secreto, te recompensará. Cuando ustedes hagan oración, no sean como los hipócritas, a quienes les gusta orar de pie en las sinagogas y en las esquinas de las plazas, para que los vea la gente. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando vayas a orar, entra en tu cuarto, cierra la puerta y ora ante tu Padre, que está allí, en lo secreto; y tu Padre, que ve lo secreto, te recompensará. Cuando ustedes ayunen, no pongan cara triste, como esos hipócritas que descuidan la apariencia de su rostro, para que la gente note que están ayunando. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando ayunes, perfúmate la cabeza y lávate la cara, para que no sepa la gente que estás ayunando, sino tu Padre, que está en lo secreto; y tu Padre, que ve lo secreto, te recompensará''.
+*Oración de la mañana*
+Querido Jesús, que en tu sabiduría nos enseñas a vivir nuestra fe con humildad y sinceridad, ayúdanos a actuar con rectitud, no buscando la aprobación humana, sino la gloria de tu amor. Que nuestras obras de piedad sean un reflejo de nuestro amor por Ti, no un espectáculo para los demás.
+Bendito Padre, agradecemos por este nuevo día que nos regalas para crecer en santidad. Ayúdanos a mantener nuestras acciones de amor y caridad en secreto, para que no busquemos el reconocimiento de los demás, sino que agrademos a tus ojos, que todo lo ven. Que en cada acto de bondad, veas el amor que te tenemos.
+Amado Espíritu Santo, ilumina nuestras acciones y decisiones para que seamos auténticos en nuestra vida de oración. Que en nuestro ayuno, oración y limosna, busquemos fortalecer nuestra relación contigo, no buscando la atención de los demás, sino tu santa presencia. Guíanos para que seamos verdaderos discípulos de Cristo en cada gesto y palabra.
+En la confianza de que nos escuchas, y sabiendo que nos amas en todo momento, terminamos esta oración diciendo: Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
+    <row r="5" ht="150" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56931123918</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>miércoles, 18 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 6, 1-6. 16-18 En aquel tiempo, Jesús dijo a sus discípulos: "Tengan cuidado de no practicar sus obras de piedad delante de los hombres para que los vean. De lo contrario, no tendrán recompensa con su Padre celestial. Por lo tanto, cuando des limosna, no lo anuncies con trompeta, como hacen los hipócritas en las sinagogas y por las calles, para que los alaben los hombres. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando des limosna, que no sepa tu mano izquierda lo que hace la derecha, para que tu limosna quede en secreto; y tu Padre, que ve lo secreto, te recompensará. Cuando ustedes hagan oración, no sean como los hipócritas, a quienes les gusta orar de pie en las sinagogas y en las esquinas de las plazas, para que los vea la gente. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando vayas a orar, entra en tu cuarto, cierra la puerta y ora ante tu Padre, que está allí, en lo secreto; y tu Padre, que ve lo secreto, te recompensará. Cuando ustedes ayunen, no pongan cara triste, como esos hipócritas que descuidan la apariencia de su rostro, para que la gente note que están ayunando. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando ayunes, perfúmate la cabeza y lávate la cara, para que no sepa la gente que estás ayunando, sino tu Padre, que está en lo secreto; y tu Padre, que ve lo secreto, te recompensará''.
+*Oración de la mañana*
+Querido Jesús, que en tu sabiduría nos enseñas a vivir nuestra fe con humildad y sinceridad, ayúdanos a actuar con rectitud, no buscando la aprobación humana, sino la gloria de tu amor. Que nuestras obras de piedad sean un reflejo de nuestro amor por Ti, no un espectáculo para los demás.
+Bendito Padre, agradecemos por este nuevo día que nos regalas para crecer en santidad. Ayúdanos a mantener nuestras acciones de amor y caridad en secreto, para que no busquemos el reconocimiento de los demás, sino que agrademos a tus ojos, que todo lo ven. Que en cada acto de bondad, veas el amor que te tenemos.
+Amado Espíritu Santo, ilumina nuestras acciones y decisiones para que seamos auténticos en nuestra vida de oración. Que en nuestro ayuno, oración y limosna, busquemos fortalecer nuestra relación contigo, no buscando la atención de los demás, sino tu santa presencia. Guíanos para que seamos verdaderos discípulos de Cristo en cada gesto y palabra.
+En la confianza de que nos escuchas, y sabiendo que nos amas en todo momento, terminamos esta oración diciendo: Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
+    <row r="6" ht="150" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yume</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>584146711206</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>miércoles, 18 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 6, 1-6. 16-18 En aquel tiempo, Jesús dijo a sus discípulos: "Tengan cuidado de no practicar sus obras de piedad delante de los hombres para que los vean. De lo contrario, no tendrán recompensa con su Padre celestial. Por lo tanto, cuando des limosna, no lo anuncies con trompeta, como hacen los hipócritas en las sinagogas y por las calles, para que los alaben los hombres. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando des limosna, que no sepa tu mano izquierda lo que hace la derecha, para que tu limosna quede en secreto; y tu Padre, que ve lo secreto, te recompensará. Cuando ustedes hagan oración, no sean como los hipócritas, a quienes les gusta orar de pie en las sinagogas y en las esquinas de las plazas, para que los vea la gente. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando vayas a orar, entra en tu cuarto, cierra la puerta y ora ante tu Padre, que está allí, en lo secreto; y tu Padre, que ve lo secreto, te recompensará. Cuando ustedes ayunen, no pongan cara triste, como esos hipócritas que descuidan la apariencia de su rostro, para que la gente note que están ayunando. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando ayunes, perfúmate la cabeza y lávate la cara, para que no sepa la gente que estás ayunando, sino tu Padre, que está en lo secreto; y tu Padre, que ve lo secreto, te recompensará''.
+*Oración de la mañana*
+Querido Jesús, que en tu sabiduría nos enseñas a vivir nuestra fe con humildad y sinceridad, ayúdanos a actuar con rectitud, no buscando la aprobación humana, sino la gloria de tu amor. Que nuestras obras de piedad sean un reflejo de nuestro amor por Ti, no un espectáculo para los demás.
+Bendito Padre, agradecemos por este nuevo día que nos regalas para crecer en santidad. Ayúdanos a mantener nuestras acciones de amor y caridad en secreto, para que no busquemos el reconocimiento de los demás, sino que agrademos a tus ojos, que todo lo ven. Que en cada acto de bondad, veas el amor que te tenemos.
+Amado Espíritu Santo, ilumina nuestras acciones y decisiones para que seamos auténticos en nuestra vida de oración. Que en nuestro ayuno, oración y limosna, busquemos fortalecer nuestra relación contigo, no buscando la atención de los demás, sino tu santa presencia. Guíanos para que seamos verdaderos discípulos de Cristo en cada gesto y palabra.
+En la confianza de que nos escuchas, y sabiendo que nos amas en todo momento, terminamos esta oración diciendo: Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mariangely</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56972028078</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mariangelygonzalez14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>miércoles, 18 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 6, 1-6. 16-18 En aquel tiempo, Jesús dijo a sus discípulos: "Tengan cuidado de no practicar sus obras de piedad delante de los hombres para que los vean. De lo contrario, no tendrán recompensa con su Padre celestial. Por lo tanto, cuando des limosna, no lo anuncies con trompeta, como hacen los hipócritas en las sinagogas y por las calles, para que los alaben los hombres. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando des limosna, que no sepa tu mano izquierda lo que hace la derecha, para que tu limosna quede en secreto; y tu Padre, que ve lo secreto, te recompensará. Cuando ustedes hagan oración, no sean como los hipócritas, a quienes les gusta orar de pie en las sinagogas y en las esquinas de las plazas, para que los vea la gente. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando vayas a orar, entra en tu cuarto, cierra la puerta y ora ante tu Padre, que está allí, en lo secreto; y tu Padre, que ve lo secreto, te recompensará. Cuando ustedes ayunen, no pongan cara triste, como esos hipócritas que descuidan la apariencia de su rostro, para que la gente note que están ayunando. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando ayunes, perfúmate la cabeza y lávate la cara, para que no sepa la gente que estás ayunando, sino tu Padre, que está en lo secreto; y tu Padre, que ve lo secreto, te recompensará''.
+*Oración de la mañana*
+Querido Jesús, que en tu sabiduría nos enseñas a vivir nuestra fe con humildad y sinceridad, ayúdanos a actuar con rectitud, no buscando la aprobación humana, sino la gloria de tu amor. Que nuestras obras de piedad sean un reflejo de nuestro amor por Ti, no un espectáculo para los demás.
+Bendito Padre, agradecemos por este nuevo día que nos regalas para crecer en santidad. Ayúdanos a mantener nuestras acciones de amor y caridad en secreto, para que no busquemos el reconocimiento de los demás, sino que agrademos a tus ojos, que todo lo ven. Que en cada acto de bondad, veas el amor que te tenemos.
+Amado Espíritu Santo, ilumina nuestras acciones y decisiones para que seamos auténticos en nuestra vida de oración. Que en nuestro ayuno, oración y limosna, busquemos fortalecer nuestra relación contigo, no buscando la atención de los demás, sino tu santa presencia. Guíanos para que seamos verdaderos discípulos de Cristo en cada gesto y palabra.
+En la confianza de que nos escuchas, y sabiendo que nos amas en todo momento, terminamos esta oración diciendo: Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALEJANDRO MANUEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LUCES</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34672527995</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>alejandroluces5515@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>miércoles, 18 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 6, 1-6. 16-18 En aquel tiempo, Jesús dijo a sus discípulos: "Tengan cuidado de no practicar sus obras de piedad delante de los hombres para que los vean. De lo contrario, no tendrán recompensa con su Padre celestial. Por lo tanto, cuando des limosna, no lo anuncies con trompeta, como hacen los hipócritas en las sinagogas y por las calles, para que los alaben los hombres. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando des limosna, que no sepa tu mano izquierda lo que hace la derecha, para que tu limosna quede en secreto; y tu Padre, que ve lo secreto, te recompensará. Cuando ustedes hagan oración, no sean como los hipócritas, a quienes les gusta orar de pie en las sinagogas y en las esquinas de las plazas, para que los vea la gente. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando vayas a orar, entra en tu cuarto, cierra la puerta y ora ante tu Padre, que está allí, en lo secreto; y tu Padre, que ve lo secreto, te recompensará. Cuando ustedes ayunen, no pongan cara triste, como esos hipócritas que descuidan la apariencia de su rostro, para que la gente note que están ayunando. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando ayunes, perfúmate la cabeza y lávate la cara, para que no sepa la gente que estás ayunando, sino tu Padre, que está en lo secreto; y tu Padre, que ve lo secreto, te recompensará''.
+*Oración de la mañana*
+Querido Jesús, que en tu sabiduría nos enseñas a vivir nuestra fe con humildad y sinceridad, ayúdanos a actuar con rectitud, no buscando la aprobación humana, sino la gloria de tu amor. Que nuestras obras de piedad sean un reflejo de nuestro amor por Ti, no un espectáculo para los demás.
+Bendito Padre, agradecemos por este nuevo día que nos regalas para crecer en santidad. Ayúdanos a mantener nuestras acciones de amor y caridad en secreto, para que no busquemos el reconocimiento de los demás, sino que agrademos a tus ojos, que todo lo ven. Que en cada acto de bondad, veas el amor que te tenemos.
+Amado Espíritu Santo, ilumina nuestras acciones y decisiones para que seamos auténticos en nuestra vida de oración. Que en nuestro ayuno, oración y limosna, busquemos fortalecer nuestra relación contigo, no buscando la atención de los demás, sino tu santa presencia. Guíanos para que seamos verdaderos discípulos de Cristo en cada gesto y palabra.
+En la confianza de que nos escuchas, y sabiendo que nos amas en todo momento, terminamos esta oración diciendo: Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marianny</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56967970252</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>marikaro2508@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>miércoles, 18 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 6, 1-6. 16-18 En aquel tiempo, Jesús dijo a sus discípulos: "Tengan cuidado de no practicar sus obras de piedad delante de los hombres para que los vean. De lo contrario, no tendrán recompensa con su Padre celestial. Por lo tanto, cuando des limosna, no lo anuncies con trompeta, como hacen los hipócritas en las sinagogas y por las calles, para que los alaben los hombres. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando des limosna, que no sepa tu mano izquierda lo que hace la derecha, para que tu limosna quede en secreto; y tu Padre, que ve lo secreto, te recompensará. Cuando ustedes hagan oración, no sean como los hipócritas, a quienes les gusta orar de pie en las sinagogas y en las esquinas de las plazas, para que los vea la gente. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando vayas a orar, entra en tu cuarto, cierra la puerta y ora ante tu Padre, que está allí, en lo secreto; y tu Padre, que ve lo secreto, te recompensará. Cuando ustedes ayunen, no pongan cara triste, como esos hipócritas que descuidan la apariencia de su rostro, para que la gente note que están ayunando. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando ayunes, perfúmate la cabeza y lávate la cara, para que no sepa la gente que estás ayunando, sino tu Padre, que está en lo secreto; y tu Padre, que ve lo secreto, te recompensará''.
+*Oración de la mañana*
+Querido Jesús, que en tu sabiduría nos enseñas a vivir nuestra fe con humildad y sinceridad, ayúdanos a actuar con rectitud, no buscando la aprobación humana, sino la gloria de tu amor. Que nuestras obras de piedad sean un reflejo de nuestro amor por Ti, no un espectáculo para los demás.
+Bendito Padre, agradecemos por este nuevo día que nos regalas para crecer en santidad. Ayúdanos a mantener nuestras acciones de amor y caridad en secreto, para que no busquemos el reconocimiento de los demás, sino que agrademos a tus ojos, que todo lo ven. Que en cada acto de bondad, veas el amor que te tenemos.
+Amado Espíritu Santo, ilumina nuestras acciones y decisiones para que seamos auténticos en nuestra vida de oración. Que en nuestro ayuno, oración y limosna, busquemos fortalecer nuestra relación contigo, no buscando la atención de los demás, sino tu santa presencia. Guíanos para que seamos verdaderos discípulos de Cristo en cada gesto y palabra.
+En la confianza de que nos escuchas, y sabiendo que nos amas en todo momento, terminamos esta oración diciendo: Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Milagros</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56936637515</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Milagrosghurtado@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>miércoles, 18 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 6, 1-6. 16-18 En aquel tiempo, Jesús dijo a sus discípulos: "Tengan cuidado de no practicar sus obras de piedad delante de los hombres para que los vean. De lo contrario, no tendrán recompensa con su Padre celestial. Por lo tanto, cuando des limosna, no lo anuncies con trompeta, como hacen los hipócritas en las sinagogas y por las calles, para que los alaben los hombres. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando des limosna, que no sepa tu mano izquierda lo que hace la derecha, para que tu limosna quede en secreto; y tu Padre, que ve lo secreto, te recompensará. Cuando ustedes hagan oración, no sean como los hipócritas, a quienes les gusta orar de pie en las sinagogas y en las esquinas de las plazas, para que los vea la gente. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando vayas a orar, entra en tu cuarto, cierra la puerta y ora ante tu Padre, que está allí, en lo secreto; y tu Padre, que ve lo secreto, te recompensará. Cuando ustedes ayunen, no pongan cara triste, como esos hipócritas que descuidan la apariencia de su rostro, para que la gente note que están ayunando. Yo les aseguro que ya recibieron su recompensa. Tú, en cambio, cuando ayunes, perfúmate la cabeza y lávate la cara, para que no sepa la gente que estás ayunando, sino tu Padre, que está en lo secreto; y tu Padre, que ve lo secreto, te recompensará''.
+*Oración de la mañana*
+Querido Jesús, que en tu sabiduría nos enseñas a vivir nuestra fe con humildad y sinceridad, ayúdanos a actuar con rectitud, no buscando la aprobación humana, sino la gloria de tu amor. Que nuestras obras de piedad sean un reflejo de nuestro amor por Ti, no un espectáculo para los demás.
+Bendito Padre, agradecemos por este nuevo día que nos regalas para crecer en santidad. Ayúdanos a mantener nuestras acciones de amor y caridad en secreto, para que no busquemos el reconocimiento de los demás, sino que agrademos a tus ojos, que todo lo ven. Que en cada acto de bondad, veas el amor que te tenemos.
+Amado Espíritu Santo, ilumina nuestras acciones y decisiones para que seamos auténticos en nuestra vida de oración. Que en nuestro ayuno, oración y limosna, busquemos fortalecer nuestra relación contigo, no buscando la atención de los demás, sino tu santa presencia. Guíanos para que seamos verdaderos discípulos de Cristo en cada gesto y palabra.
+En la confianza de que nos escuchas, y sabiendo que nos amas en todo momento, terminamos esta oración diciendo: Amén.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>